--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -74,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -89,37 +89,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,29 +106,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,40 +126,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,6 +154,83 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,7 +241,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,37 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,55 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,13 +361,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,19 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,36 +488,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,20 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2260,12 +2260,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -3112,6 +3112,90 @@
       </c>
       <c r="D57">
         <v>1208.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.643055555555556</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D58">
+        <v>1208.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.702777777777778</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D59">
+        <v>1233.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D60">
+        <v>1233.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.836111111111111</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D61">
+        <v>1248.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.929861111111111</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D62">
+        <v>1248.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.953472222222222</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D63">
+        <v>1267.8</v>
       </c>
     </row>
   </sheetData>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -74,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -103,6 +103,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -111,14 +118,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,14 +148,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +180,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,55 +241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +265,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,19 +337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,13 +367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,37 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,17 +435,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,15 +449,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +464,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,16 +518,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2260,12 +2260,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -3196,6 +3196,459 @@
       </c>
       <c r="D63">
         <v>1267.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.629166666666667</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D64">
+        <v>1267.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.645138888888889</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D65">
+        <v>1272.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.720138888888889</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D66">
+        <v>1272.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.735416666666667</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D67">
+        <v>1277.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.813888888888889</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D68">
+        <v>1277.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D69">
+        <v>1300.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.927083333333333</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D70">
+        <v>1300.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.950694444444444</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D71">
+        <v>1320.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.341666666666667</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D72">
+        <v>1320.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.379166666666667</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D73">
+        <v>1338.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.863888888888889</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D75">
+        <v>1338.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.888194444444444</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D76">
+        <v>1357.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D77">
+        <v>1357.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.374305555555556</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D78">
+        <v>1375.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.857638888888889</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D79">
+        <v>1375.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.877777777777778</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D80">
+        <v>1394.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.339583333333333</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D81">
+        <v>1394.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.36875</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="D82">
+        <v>1412.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.821527777777778</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="D83">
+        <v>1413.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="D84">
+        <v>1433.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.936805555555556</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="D85">
+        <v>1433.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.965972222222222</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D86">
+        <v>1453.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.340972222222222</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D87">
+        <v>1453.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.367361111111111</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D88">
+        <v>1471.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.857638888888889</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D89">
+        <v>1471.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.874305555555556</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D90">
+        <v>1489.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D91">
+        <v>1489.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.365972222222222</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D92">
+        <v>1508.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.831944444444444</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D94">
+        <v>1508.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.850694444444444</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D95">
+        <v>1526.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.597222222222222</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D96">
+        <v>1526.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.603472222222222</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D97">
+        <v>1528.7</v>
       </c>
     </row>
   </sheetData>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
   <si>
     <t>日期</t>
   </si>
@@ -57,16 +57,46 @@
     <t>30%-95%</t>
   </si>
   <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>翔殷三村</t>
+  </si>
+  <si>
+    <t>光大安石停车场</t>
+  </si>
+  <si>
     <t>28%-94%</t>
+  </si>
+  <si>
+    <t>比亚迪4s店</t>
+  </si>
+  <si>
+    <t>太平洋停车场</t>
   </si>
   <si>
     <t>64%-89%</t>
   </si>
   <si>
+    <t>徐家汇兆丰大厦停车场</t>
+  </si>
+  <si>
     <t>69%-98%</t>
   </si>
   <si>
+    <t>硕和国际停车场</t>
+  </si>
+  <si>
+    <t>科投大厦停车场</t>
+  </si>
+  <si>
     <t>50%-96%</t>
+  </si>
+  <si>
+    <t>中友大厦停车场</t>
+  </si>
+  <si>
+    <t>国霞路停车场</t>
   </si>
 </sst>
 </file>
@@ -75,8 +105,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,13 +118,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -103,7 +127,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,8 +155,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,17 +179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,23 +196,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +204,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,31 +240,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +271,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,109 +373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,19 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +427,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,48 +467,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,13 +500,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +544,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2260,20 +2290,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="9.53097345132743"/>
+    <col min="8" max="8" width="9.53097345132743"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2287,25 +2317,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>43922</v>
       </c>
@@ -2318,8 +2351,11 @@
       <c r="D2">
         <v>730</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>43922</v>
       </c>
@@ -2331,6 +2367,9 @@
       </c>
       <c r="D3">
         <v>748</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2417,7 +2456,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>43923</v>
       </c>
@@ -2430,8 +2469,11 @@
       <c r="D10">
         <v>828</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>43923</v>
       </c>
@@ -2444,8 +2486,11 @@
       <c r="D11">
         <v>846</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>43923</v>
       </c>
@@ -2458,8 +2503,11 @@
       <c r="D12">
         <v>846</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>43923</v>
       </c>
@@ -2472,31 +2520,34 @@
       <c r="D13">
         <v>864</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>43923</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>0.888194444444444</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>0.923611111111111</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>91.87</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>39.94</v>
       </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>43924</v>
       </c>
@@ -2509,8 +2560,11 @@
       <c r="D15">
         <v>865</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>43924</v>
       </c>
@@ -2523,8 +2577,11 @@
       <c r="D16">
         <v>883</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>43924</v>
       </c>
@@ -2537,8 +2594,11 @@
       <c r="D17">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>43924</v>
       </c>
@@ -2551,8 +2611,11 @@
       <c r="D18">
         <v>900</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>43925</v>
       </c>
@@ -2565,11 +2628,14 @@
       <c r="D19">
         <v>902</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>43925</v>
       </c>
@@ -2582,8 +2648,11 @@
       <c r="D20">
         <v>920</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>43925</v>
       </c>
@@ -2596,8 +2665,11 @@
       <c r="D21">
         <v>920</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>43925</v>
       </c>
@@ -2610,8 +2682,11 @@
       <c r="D22">
         <v>938</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>43925</v>
       </c>
@@ -2624,8 +2699,11 @@
       <c r="D23">
         <v>938</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>43925</v>
       </c>
@@ -2638,8 +2716,11 @@
       <c r="D24">
         <v>939</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>43926</v>
       </c>
@@ -2652,8 +2733,11 @@
       <c r="D25">
         <v>939</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>43926</v>
       </c>
@@ -2666,26 +2750,29 @@
       <c r="D26">
         <v>957</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>43926</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>0.410949074074074</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>0.602430555555556</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>14.17</v>
       </c>
-      <c r="J27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>43926</v>
       </c>
@@ -2698,8 +2785,11 @@
       <c r="D28">
         <v>957</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>43926</v>
       </c>
@@ -2712,8 +2802,11 @@
       <c r="D29">
         <v>976</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>43927</v>
       </c>
@@ -2726,8 +2819,11 @@
       <c r="D30">
         <v>976</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>43927</v>
       </c>
@@ -2740,8 +2836,11 @@
       <c r="D31">
         <v>998</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>43927</v>
       </c>
@@ -2754,8 +2853,11 @@
       <c r="D32">
         <v>998</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>43927</v>
       </c>
@@ -2768,28 +2870,31 @@
       <c r="D33">
         <v>1027.3</v>
       </c>
-    </row>
-    <row r="34" spans="5:10">
-      <c r="E34" s="1">
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11">
+      <c r="F34" s="1">
         <v>43927</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>0.707638888888889</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>0.735416666666667</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>42.09</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>18.3</v>
       </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>43927</v>
       </c>
@@ -2802,8 +2907,11 @@
       <c r="D35">
         <v>1027.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>43927</v>
       </c>
@@ -2816,8 +2924,11 @@
       <c r="D36">
         <v>1028.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>43927</v>
       </c>
@@ -2830,8 +2941,11 @@
       <c r="D37">
         <v>1028.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>43927</v>
       </c>
@@ -2844,8 +2958,11 @@
       <c r="D38">
         <v>1031.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>43928</v>
       </c>
@@ -2858,8 +2975,11 @@
       <c r="D39">
         <v>1031.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>43928</v>
       </c>
@@ -2872,8 +2992,11 @@
       <c r="D40">
         <v>1050.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>43928</v>
       </c>
@@ -2886,8 +3009,11 @@
       <c r="D41">
         <v>1050.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2900,8 +3026,11 @@
       <c r="D42">
         <v>1068.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2914,8 +3043,11 @@
       <c r="D43">
         <v>1068.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>43929</v>
       </c>
@@ -2928,8 +3060,11 @@
       <c r="D44">
         <v>1087.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43929</v>
       </c>
@@ -2942,8 +3077,11 @@
       <c r="D45">
         <v>1087.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>43929</v>
       </c>
@@ -2956,13 +3094,16 @@
       <c r="D46">
         <v>1115.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>43929</v>
       </c>
       <c r="B47" s="2">
-        <v>0.442361111111111</v>
+        <v>0.942361111111111</v>
       </c>
       <c r="C47" s="3">
         <v>0.71</v>
@@ -2970,8 +3111,11 @@
       <c r="D47">
         <v>1115.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>43929</v>
       </c>
@@ -2984,8 +3128,11 @@
       <c r="D48">
         <v>1135.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>43930</v>
       </c>
@@ -2998,8 +3145,11 @@
       <c r="D49">
         <v>1135.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>43930</v>
       </c>
@@ -3012,8 +3162,11 @@
       <c r="D50">
         <v>1153.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>43930</v>
       </c>
@@ -3026,8 +3179,11 @@
       <c r="D51">
         <v>1153.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>43930</v>
       </c>
@@ -3040,8 +3196,11 @@
       <c r="D52">
         <v>1172</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>43931</v>
       </c>
@@ -3054,8 +3213,11 @@
       <c r="D53">
         <v>1172</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>43931</v>
       </c>
@@ -3068,25 +3230,28 @@
       <c r="D54">
         <v>1190.7</v>
       </c>
-    </row>
-    <row r="55" spans="5:10">
-      <c r="E55" s="1">
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11">
+      <c r="F55" s="1">
         <v>43931</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>0.381388888888889</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>0.764444444444444</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>29.36</v>
       </c>
-      <c r="J55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>43931</v>
       </c>
@@ -3099,8 +3264,11 @@
       <c r="D56">
         <v>1190.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>43931</v>
       </c>
@@ -3113,8 +3281,11 @@
       <c r="D57">
         <v>1208.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>43932</v>
       </c>
@@ -3127,8 +3298,11 @@
       <c r="D58">
         <v>1208.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>43932</v>
       </c>
@@ -3141,8 +3315,11 @@
       <c r="D59">
         <v>1233.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>43932</v>
       </c>
@@ -3155,8 +3332,11 @@
       <c r="D60">
         <v>1233.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>43932</v>
       </c>
@@ -3169,8 +3349,11 @@
       <c r="D61">
         <v>1248.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>43932</v>
       </c>
@@ -3183,8 +3366,11 @@
       <c r="D62">
         <v>1248.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>43932</v>
       </c>
@@ -3197,8 +3383,11 @@
       <c r="D63">
         <v>1267.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>43933</v>
       </c>
@@ -3211,8 +3400,11 @@
       <c r="D64">
         <v>1267.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>43933</v>
       </c>
@@ -3225,8 +3417,11 @@
       <c r="D65">
         <v>1272.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>43933</v>
       </c>
@@ -3239,8 +3434,11 @@
       <c r="D66">
         <v>1272.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>43933</v>
       </c>
@@ -3253,8 +3451,11 @@
       <c r="D67">
         <v>1277.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>43933</v>
       </c>
@@ -3267,8 +3468,11 @@
       <c r="D68">
         <v>1277.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>43933</v>
       </c>
@@ -3281,8 +3485,11 @@
       <c r="D69">
         <v>1300.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>43933</v>
       </c>
@@ -3295,8 +3502,11 @@
       <c r="D70">
         <v>1300.6</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>43933</v>
       </c>
@@ -3309,8 +3519,11 @@
       <c r="D71">
         <v>1320.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>43934</v>
       </c>
@@ -3323,8 +3536,11 @@
       <c r="D72">
         <v>1320.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>43934</v>
       </c>
@@ -3336,6 +3552,9 @@
       </c>
       <c r="D73">
         <v>1338.9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3343,7 +3562,7 @@
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>43934</v>
       </c>
@@ -3356,8 +3575,11 @@
       <c r="D75">
         <v>1338.9</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>43934</v>
       </c>
@@ -3370,8 +3592,11 @@
       <c r="D76">
         <v>1357.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>43935</v>
       </c>
@@ -3384,8 +3609,11 @@
       <c r="D77">
         <v>1357.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>43935</v>
       </c>
@@ -3398,8 +3626,11 @@
       <c r="D78">
         <v>1375.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>43935</v>
       </c>
@@ -3412,8 +3643,11 @@
       <c r="D79">
         <v>1375.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>43935</v>
       </c>
@@ -3426,8 +3660,11 @@
       <c r="D80">
         <v>1394.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>43936</v>
       </c>
@@ -3440,8 +3677,11 @@
       <c r="D81">
         <v>1394.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>43936</v>
       </c>
@@ -3454,8 +3694,11 @@
       <c r="D82">
         <v>1412.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>43936</v>
       </c>
@@ -3468,8 +3711,11 @@
       <c r="D83">
         <v>1413.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>43936</v>
       </c>
@@ -3482,8 +3728,11 @@
       <c r="D84">
         <v>1433.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>43936</v>
       </c>
@@ -3496,8 +3745,11 @@
       <c r="D85">
         <v>1433.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>43936</v>
       </c>
@@ -3510,8 +3762,11 @@
       <c r="D86">
         <v>1453.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>43937</v>
       </c>
@@ -3524,8 +3779,11 @@
       <c r="D87">
         <v>1453.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>43937</v>
       </c>
@@ -3538,8 +3796,11 @@
       <c r="D88">
         <v>1471.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>43937</v>
       </c>
@@ -3552,8 +3813,11 @@
       <c r="D89">
         <v>1471.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>43937</v>
       </c>
@@ -3566,8 +3830,11 @@
       <c r="D90">
         <v>1489.9</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>43938</v>
       </c>
@@ -3580,8 +3847,11 @@
       <c r="D91">
         <v>1489.9</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>43938</v>
       </c>
@@ -3594,8 +3864,11 @@
       <c r="D92">
         <v>1508.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>43938</v>
       </c>
@@ -3608,8 +3881,11 @@
       <c r="D94">
         <v>1508.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>43938</v>
       </c>
@@ -3622,8 +3898,11 @@
       <c r="D95">
         <v>1526.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>43939</v>
       </c>
@@ -3636,8 +3915,11 @@
       <c r="D96">
         <v>1526.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>43939</v>
       </c>
@@ -3649,6 +3931,179 @@
       </c>
       <c r="D97">
         <v>1528.7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D98">
+        <v>1528.7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.729861111111111</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="D99">
+        <v>1530.9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.746527777777778</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="D100">
+        <v>1530.9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.773611111111111</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D101">
+        <v>1550.9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.929861111111111</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D102">
+        <v>1550.9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.952083333333333</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D103">
+        <v>1570.3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.622222222222222</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D104">
+        <v>1570.3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.6375</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D105">
+        <v>1574.8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.717361111111111</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D106">
+        <v>1574.8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.731944444444444</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D107">
+        <v>1579.2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="27">
   <si>
     <t>日期</t>
   </si>
@@ -104,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,7 +118,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -127,7 +126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,7 +141,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,9 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,44 +185,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -232,15 +201,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,9 +240,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,31 +271,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,31 +307,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,67 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,19 +373,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,50 +467,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,11 +504,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +553,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,149 +570,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +726,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2290,12 +2293,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -4104,6 +4107,419 @@
       </c>
       <c r="E107" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D108">
+        <v>1579.2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.373611111111111</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D109">
+        <v>1597.6</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.869444444444444</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D110">
+        <v>1597.6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.886111111111111</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D111">
+        <v>1615.9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.343055555555556</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D112">
+        <v>1615.9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.379861111111111</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="D113">
+        <v>1634.3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.867361111111111</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="D114">
+        <v>1634.3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.884722222222222</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D115">
+        <v>1652.7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.334027777777778</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D116">
+        <v>1652.7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.363194444444444</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D117">
+        <v>1671.1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="D119">
+        <v>1671.1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.827777777777778</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D120">
+        <v>1697.2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.938194444444444</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D121">
+        <v>1697.2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.9625</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D122">
+        <v>1716.6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.338194444444444</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D123">
+        <v>1716.6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.367361111111111</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1735</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.779166666666667</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D125">
+        <v>1735</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D126">
+        <v>1753.3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.338194444444444</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D127">
+        <v>1753.3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.370138888888889</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="D128">
+        <v>1771.6</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.872222222222222</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="D129">
+        <v>1771.6</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.8875</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="D130">
+        <v>1789.9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.567361111111111</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="D131">
+        <v>1789.9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.581944444444444</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D132">
+        <v>1792.9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="27">
   <si>
     <t>日期</t>
   </si>
@@ -104,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,30 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +133,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -161,9 +155,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,19 +199,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,10 +222,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,32 +255,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,7 +271,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +313,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,13 +355,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,25 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,13 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,91 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,11 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +495,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,17 +519,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,24 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2293,12 +2293,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -4520,6 +4520,108 @@
       </c>
       <c r="E132" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.714583333333333</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D133">
+        <v>1792.9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.725</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D134">
+        <v>1795.1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.763888888888889</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D135">
+        <v>1795.1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.792361111111111</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D136">
+        <v>1815.2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.930555555555556</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D137">
+        <v>1815.2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.95625</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D138">
+        <v>1834.7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="9990" activeTab="1"/>
+    <workbookView windowWidth="20520" windowHeight="9600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2020-3" sheetId="1" r:id="rId1"/>
     <sheet name="2020-4" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="42">
   <si>
     <t>日期</t>
   </si>
@@ -66,6 +66,9 @@
     <t>光大安石停车场</t>
   </si>
   <si>
+    <t>康宁路1228号</t>
+  </si>
+  <si>
     <t>28%-94%</t>
   </si>
   <si>
@@ -98,6 +101,48 @@
   <si>
     <t>国霞路停车场</t>
   </si>
+  <si>
+    <t>53%-85%</t>
+  </si>
+  <si>
+    <t>38%-93%</t>
+  </si>
+  <si>
+    <t>44%-96%</t>
+  </si>
+  <si>
+    <t>45%-63%</t>
+  </si>
+  <si>
+    <t>43%-60%</t>
+  </si>
+  <si>
+    <t>37%-45%</t>
+  </si>
+  <si>
+    <t>25%-98%</t>
+  </si>
+  <si>
+    <t>世纪汇停车场</t>
+  </si>
+  <si>
+    <t>襄阳北路</t>
+  </si>
+  <si>
+    <t>宝安公路殡仪馆</t>
+  </si>
+  <si>
+    <t>市光三村</t>
+  </si>
+  <si>
+    <t>花园港路美术馆停车场</t>
+  </si>
+  <si>
+    <t>宜家停车场</t>
+  </si>
+  <si>
+    <t>军工路易安友贴膜店</t>
+  </si>
 </sst>
 </file>
 
@@ -118,16 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +181,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,8 +215,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,33 +276,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,46 +306,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,13 +316,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,19 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,19 +370,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,25 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,73 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +440,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -462,6 +507,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,16 +561,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,50 +607,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2293,17 +2338,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
+      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="9.53097345132743"/>
+    <col min="5" max="5" width="19.787610619469" customWidth="1"/>
+    <col min="7" max="8" width="9.53097345132743"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2375,7 +2421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>43922</v>
       </c>
@@ -2388,8 +2434,11 @@
       <c r="D4">
         <v>749</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>43922</v>
       </c>
@@ -2402,8 +2451,11 @@
       <c r="D5">
         <v>779</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>43922</v>
       </c>
@@ -2416,8 +2468,11 @@
       <c r="D6">
         <v>779</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>43922</v>
       </c>
@@ -2430,8 +2485,11 @@
       <c r="D7">
         <v>810</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>43922</v>
       </c>
@@ -2444,8 +2502,11 @@
       <c r="D8">
         <v>810</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>43922</v>
       </c>
@@ -2457,6 +2518,9 @@
       </c>
       <c r="D9">
         <v>827</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2547,7 +2611,7 @@
         <v>39.94</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2598,7 +2662,7 @@
         <v>900</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2686,7 +2750,7 @@
         <v>938</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2703,7 +2767,7 @@
         <v>938</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2772,7 +2836,7 @@
         <v>14.17</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2840,7 +2904,7 @@
         <v>998</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2857,7 +2921,7 @@
         <v>998</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2874,7 +2938,7 @@
         <v>1027.3</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="6:11">
@@ -2894,7 +2958,7 @@
         <v>18.3</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2911,7 +2975,7 @@
         <v>1027.3</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2928,7 +2992,7 @@
         <v>1028.6</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2945,7 +3009,7 @@
         <v>1028.6</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3098,7 +3162,7 @@
         <v>1115.7</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3115,7 +3179,7 @@
         <v>1115.7</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3251,7 +3315,7 @@
         <v>29.36</v>
       </c>
       <c r="K55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3319,7 +3383,7 @@
         <v>1233.7</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3336,7 +3400,7 @@
         <v>1233.7</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3353,7 +3417,7 @@
         <v>1248.3</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3370,7 +3434,7 @@
         <v>1248.3</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3421,7 +3485,7 @@
         <v>1272.3</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3438,7 +3502,7 @@
         <v>1272.3</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3489,7 +3553,7 @@
         <v>1300.6</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3506,7 +3570,7 @@
         <v>1300.6</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3560,10 +3624,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:11">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
+      <c r="F74" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0.524189814814815</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0.766122685185185</v>
+      </c>
+      <c r="J74">
+        <v>18.42</v>
+      </c>
+      <c r="K74" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
@@ -3732,7 +3811,7 @@
         <v>1433.8</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3749,7 +3828,7 @@
         <v>1433.8</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3871,6 +3950,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="93" spans="6:11">
+      <c r="F93" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0.367905092592593</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0.830902777777778</v>
+      </c>
+      <c r="J93">
+        <v>35.88</v>
+      </c>
+      <c r="K93" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>43938</v>
@@ -3936,7 +4032,7 @@
         <v>1528.7</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3953,7 +4049,7 @@
         <v>1528.7</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3970,7 +4066,7 @@
         <v>1530.9</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3987,7 +4083,7 @@
         <v>1530.9</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4004,7 +4100,7 @@
         <v>1550.9</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4021,7 +4117,7 @@
         <v>1550.9</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4072,7 +4168,7 @@
         <v>1574.8</v>
       </c>
       <c r="E105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4089,7 +4185,7 @@
         <v>1574.8</v>
       </c>
       <c r="E106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4279,10 +4375,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:11">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
+      <c r="F118" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0.364849537037037</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0.790625</v>
+      </c>
+      <c r="J118">
+        <v>32.56</v>
+      </c>
+      <c r="K118" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
@@ -4315,7 +4426,7 @@
         <v>1697.2</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4332,7 +4443,7 @@
         <v>1697.2</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4519,7 +4630,7 @@
         <v>1792.9</v>
       </c>
       <c r="E132" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4536,7 +4647,7 @@
         <v>1792.9</v>
       </c>
       <c r="E133" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4553,7 +4664,7 @@
         <v>1795.1</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4570,7 +4681,7 @@
         <v>1795.1</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4587,7 +4698,7 @@
         <v>1815.2</v>
       </c>
       <c r="E136" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4604,7 +4715,7 @@
         <v>1815.2</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4622,6 +4733,486 @@
       </c>
       <c r="E138" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.336111111111111</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D139">
+        <v>1834.7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.367361111111111</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D140">
+        <v>1853.1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="6:11">
+      <c r="F141" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G141" s="4">
+        <v>0.369247685185185</v>
+      </c>
+      <c r="H141" s="4">
+        <v>0.514965277777778</v>
+      </c>
+      <c r="J141">
+        <v>11.28</v>
+      </c>
+      <c r="K141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.788194444444444</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D142">
+        <v>1853.1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.745138888888889</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="D143">
+        <v>1875.5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.929166666666667</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="D144">
+        <v>1875.5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.955555555555556</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D145">
+        <v>1894</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D146">
+        <v>1894</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D147">
+        <v>1913</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1"/>
+      <c r="F148" s="1">
+        <v>43948</v>
+      </c>
+      <c r="G148" s="4">
+        <v>0.373518518518519</v>
+      </c>
+      <c r="H148" s="4">
+        <v>0.510578703703704</v>
+      </c>
+      <c r="J148">
+        <v>10.16</v>
+      </c>
+      <c r="K148" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D149">
+        <v>1913</v>
+      </c>
+      <c r="E149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.88125</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D150">
+        <v>1931</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D151">
+        <v>1931</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D152">
+        <v>1950</v>
+      </c>
+      <c r="E152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.779166666666667</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D153">
+        <v>1950</v>
+      </c>
+      <c r="E153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.799305555555556</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D154">
+        <v>1968</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0.340972222222222</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D155">
+        <v>1968</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.370833333333333</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D156">
+        <v>1987</v>
+      </c>
+      <c r="E156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="6:11">
+      <c r="F157" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G157" s="4">
+        <v>0.39068287037037</v>
+      </c>
+      <c r="H157" s="4">
+        <v>0.463877314814815</v>
+      </c>
+      <c r="J157">
+        <v>5.51</v>
+      </c>
+      <c r="K157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.829166666666667</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D158">
+        <v>1987</v>
+      </c>
+      <c r="E158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.859722222222222</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D159">
+        <v>2014</v>
+      </c>
+      <c r="E159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.936111111111111</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D160">
+        <v>2014</v>
+      </c>
+      <c r="E160" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.957638888888889</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D161">
+        <v>2034</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D162">
+        <v>2034</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D163">
+        <v>2052</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="3"/>
+      <c r="F164" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G164" s="4">
+        <v>0.392280092592593</v>
+      </c>
+      <c r="H164" s="4">
+        <v>0.990509259259259</v>
+      </c>
+      <c r="J164">
+        <v>45.63</v>
+      </c>
+      <c r="K164" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.990972222222222</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D165">
+        <v>2052</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.991666666666667</v>
+      </c>
+      <c r="C166" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D166">
+        <v>2052</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4633,14 +5224,1701 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.30088495575221" customWidth="1"/>
+    <col min="5" max="5" width="18.6548672566372" customWidth="1"/>
+    <col min="7" max="7" width="27.6814159292035" customWidth="1"/>
+    <col min="8" max="8" width="17.5309734513274" customWidth="1"/>
+    <col min="9" max="9" width="18.6548672566372" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.138888888888889</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D2">
+        <v>2052</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.154166666666667</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="D3">
+        <v>2071</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="D4">
+        <v>2071</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.620138888888889</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D5">
+        <v>2072.9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.718055555555556</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D6">
+        <v>2072.9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.725694444444444</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D7">
+        <v>2074.8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D8">
+        <v>2074.8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="D9">
+        <v>2093</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.778472222222222</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="D10">
+        <v>2093</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.804166666666667</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D11">
+        <v>2109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.893055555555556</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D12">
+        <v>2109</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.919444444444444</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D13">
+        <v>2118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.98125</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D14">
+        <v>2118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.00555555555555556</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D15">
+        <v>2136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.633333333333333</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D16">
+        <v>2136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.644444444444444</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D17">
+        <v>2141</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.720138888888889</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D18">
+        <v>2141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.738194444444444</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D19">
+        <v>2148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.765972222222222</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D20">
+        <v>2148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.797916666666667</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D21">
+        <v>2166</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.905555555555556</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D22">
+        <v>2166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.929166666666667</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="D23">
+        <v>2185</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.617361111111111</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="D24">
+        <v>2185</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D25">
+        <v>2186</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.744444444444444</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D26">
+        <v>2186</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.752777777777778</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D27">
+        <v>2190</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.519444444444444</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D28">
+        <v>2190</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.561805555555556</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D29">
+        <v>2208</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.577777777777778</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D30">
+        <v>2208</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.628472222222222</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D31">
+        <v>2230</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D32">
+        <v>2230</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.681944444444444</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D33">
+        <v>2254</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.757638888888889</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D34">
+        <v>2254</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.781944444444444</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D35">
+        <v>2262</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.840277777777778</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D36">
+        <v>2262</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.875694444444444</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="D37">
+        <v>2287</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.342361111111111</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="D38">
+        <v>2287</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.375694444444444</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D39">
+        <v>2306</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.83125</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D41">
+        <v>2306</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.859027777777778</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D42">
+        <v>2333</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.941666666666667</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D43">
+        <v>2333</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.968055555555556</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D44">
+        <v>2352</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.341666666666667</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D45">
+        <v>2352</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.379166666666667</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D46">
+        <v>2371</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.860416666666667</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D47">
+        <v>2371</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.879861111111111</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D48">
+        <v>2389</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D49">
+        <v>2389</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.372916666666667</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D50">
+        <v>2407</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D52">
+        <v>2407</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.88125</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D53">
+        <v>2427</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.341666666666667</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D54">
+        <v>2427</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.369444444444444</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D55">
+        <v>2445</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.759027777777778</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D56">
+        <v>2445</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.815972222222222</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D57">
+        <v>2477</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.874305555555556</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D58">
+        <v>2477</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.901388888888889</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D59">
+        <v>2496</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.448611111111111</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D60">
+        <v>2496</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D61">
+        <v>2504</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.575</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D62">
+        <v>2504</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.591666666666667</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="D63">
+        <v>2512</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="D64">
+        <v>2512</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.652777777777778</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D65">
+        <v>2517</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.722916666666667</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D66">
+        <v>2517</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.735416666666667</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="D67">
+        <v>2522</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.750694444444444</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="D68">
+        <v>2522</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.763194444444444</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D69">
+        <v>2525</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.76875</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D70">
+        <v>2525</v>
+      </c>
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.778472222222222</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D71">
+        <v>2530</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.782638888888889</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D72">
+        <v>2530</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.813194444444444</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D73">
+        <v>2556</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.910416666666667</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D74">
+        <v>2556</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.938888888888889</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D75">
+        <v>2576</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D76">
+        <v>2576</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.378472222222222</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D77">
+        <v>2594</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D78">
+        <v>2594</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.913194444444444</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D79">
+        <v>2613</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.340972222222222</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D80">
+        <v>2613</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.372916666666667</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="D81">
+        <v>2631</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.860416666666667</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D83">
+        <v>2631</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.882638888888889</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D84">
+        <v>2649</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D85">
+        <v>2649</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.378472222222222</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="D86">
+        <v>2667</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.829861111111111</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="D87">
+        <v>2667</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.857638888888889</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D88">
+        <v>2694</v>
+      </c>
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.942361111111111</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D89">
+        <v>2694</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D90">
+        <v>2714</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.340972222222222</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D91">
+        <v>2714</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.370138888888889</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="D92">
+        <v>2732</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.879861111111111</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="D93">
+        <v>2732</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.897916666666667</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D94">
+        <v>2750</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D95">
+        <v>2750</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.370138888888889</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D96">
+        <v>2769</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.859722222222222</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D97">
+        <v>2769</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.879861111111111</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D98">
+        <v>2787</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.545138888888889</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D99">
+        <v>2787</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.553472222222222</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D100">
+        <v>2789</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="9600" activeTab="2"/>
+    <workbookView windowWidth="20520" windowHeight="9990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2020-3" sheetId="1" r:id="rId1"/>
     <sheet name="2020-4" sheetId="2" r:id="rId2"/>
     <sheet name="2020-5" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-6" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="52">
   <si>
     <t>日期</t>
   </si>
@@ -143,16 +144,47 @@
   <si>
     <t>军工路易安友贴膜店</t>
   </si>
+  <si>
+    <t>太仓路停车场</t>
+  </si>
+  <si>
+    <t>连城广场</t>
+  </si>
+  <si>
+    <t>洗车店</t>
+  </si>
+  <si>
+    <t>卢湾体育馆</t>
+  </si>
+  <si>
+    <t>虹口足球场</t>
+  </si>
+  <si>
+    <t>西南小区</t>
+  </si>
+  <si>
+    <t>交通银行张江支行</t>
+  </si>
+  <si>
+    <t>平安大厦停车场</t>
+  </si>
+  <si>
+    <t>玻璃博物馆</t>
+  </si>
+  <si>
+    <t>虹口少体馆</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,7 +196,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +248,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,37 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,15 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,18 +331,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,13 +348,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,19 +462,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,121 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,11 +544,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,26 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +600,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -586,24 +616,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,137 +659,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +800,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1097,7 +1132,7 @@
   <sheetPr/>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -2341,7 +2376,7 @@
   <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
@@ -2826,10 +2861,10 @@
       <c r="F27" s="1">
         <v>43926</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>0.410949074074074</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>0.602430555555556</v>
       </c>
       <c r="J27">
@@ -3305,10 +3340,10 @@
       <c r="F55" s="1">
         <v>43931</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="5">
         <v>0.381388888888889</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="5">
         <v>0.764444444444444</v>
       </c>
       <c r="J55">
@@ -3631,10 +3666,10 @@
       <c r="F74" s="1">
         <v>43934</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="5">
         <v>0.524189814814815</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="5">
         <v>0.766122685185185</v>
       </c>
       <c r="J74">
@@ -3954,10 +3989,10 @@
       <c r="F93" s="1">
         <v>43938</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="5">
         <v>0.367905092592593</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="5">
         <v>0.830902777777778</v>
       </c>
       <c r="J93">
@@ -4382,10 +4417,10 @@
       <c r="F118" s="1">
         <v>43943</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="5">
         <v>0.364849537037037</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="5">
         <v>0.790625</v>
       </c>
       <c r="J118">
@@ -4490,7 +4525,7 @@
       <c r="C124" s="3">
         <v>0.79</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="6">
         <v>1735</v>
       </c>
       <c r="E124" t="s">
@@ -4773,10 +4808,10 @@
       <c r="F141" s="1">
         <v>43947</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="5">
         <v>0.369247685185185</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H141" s="5">
         <v>0.514965277777778</v>
       </c>
       <c r="J141">
@@ -4893,10 +4928,10 @@
       <c r="F148" s="1">
         <v>43948</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="5">
         <v>0.373518518518519</v>
       </c>
-      <c r="H148" s="4">
+      <c r="H148" s="5">
         <v>0.510578703703704</v>
       </c>
       <c r="J148">
@@ -5046,10 +5081,10 @@
       <c r="F157" s="1">
         <v>43950</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157" s="5">
         <v>0.39068287037037</v>
       </c>
-      <c r="H157" s="4">
+      <c r="H157" s="5">
         <v>0.463877314814815</v>
       </c>
       <c r="J157">
@@ -5168,10 +5203,10 @@
       <c r="F164" s="1">
         <v>43951</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="5">
         <v>0.392280092592593</v>
       </c>
-      <c r="H164" s="4">
+      <c r="H164" s="5">
         <v>0.990509259259259</v>
       </c>
       <c r="J164">
@@ -5224,17 +5259,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188:A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.30088495575221" customWidth="1"/>
+    <col min="2" max="2" width="9.53097345132743"/>
     <col min="5" max="5" width="18.6548672566372" customWidth="1"/>
     <col min="7" max="7" width="27.6814159292035" customWidth="1"/>
     <col min="8" max="8" width="17.5309734513274" customWidth="1"/>
@@ -6918,6 +6954,3319 @@
         <v>23</v>
       </c>
     </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.66875</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D101">
+        <v>2789</v>
+      </c>
+      <c r="E101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.697916666666667</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D102">
+        <v>2808</v>
+      </c>
+      <c r="E102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D103">
+        <v>2808</v>
+      </c>
+      <c r="E103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.907638888888889</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D104">
+        <v>2822</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.563888888888889</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D105">
+        <v>2822</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.570138888888889</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D106">
+        <v>2824</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.709027777777778</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D107">
+        <v>2824</v>
+      </c>
+      <c r="E107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.715972222222222</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D108">
+        <v>2826</v>
+      </c>
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.766666666666667</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D109">
+        <v>2825</v>
+      </c>
+      <c r="E109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.795138888888889</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D110">
+        <v>2849</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.925</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D111">
+        <v>2849</v>
+      </c>
+      <c r="E111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.952777777777778</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="D112">
+        <v>2869</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.345138888888889</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="D113">
+        <v>2869</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.382638888888889</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D114">
+        <v>2887</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.906944444444444</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D116">
+        <v>2887</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.925</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D117">
+        <v>2905</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.338194444444444</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D118">
+        <v>2905</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D119">
+        <v>2924.2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.881944444444444</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D120">
+        <v>2924.2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D121">
+        <v>2942.5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.339583333333333</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D122">
+        <v>2942.5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.374305555555556</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D123">
+        <v>2961.1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.788194444444444</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D125">
+        <v>2961.1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.827777777777778</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D126">
+        <v>3006.3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.909722222222222</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D127">
+        <v>3006.3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.952777777777778</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D128">
+        <v>3062.5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.338194444444444</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D129">
+        <v>3062.5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.370138888888889</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="D130">
+        <v>3081.1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="D131">
+        <v>3081.1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.794444444444444</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D132">
+        <v>3099.3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.339583333333333</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D133">
+        <v>3099.3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.375694444444444</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D134">
+        <v>3117.8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.86875</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D135">
+        <v>3117.8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.888194444444444</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D136" s="4">
+        <v>3136</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D137" s="4">
+        <v>3136</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.736111111111111</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D138">
+        <v>3136.7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.752083333333333</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D139">
+        <v>3136.7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.775694444444444</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D140" s="4">
+        <v>3157</v>
+      </c>
+      <c r="E140" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.879861111111111</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D141" s="4">
+        <v>3157</v>
+      </c>
+      <c r="E141" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.907638888888889</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D142" s="4">
+        <v>3175</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.529166666666667</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D143" s="4">
+        <v>3175</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.575</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D144">
+        <v>3230.9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.600694444444444</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D145">
+        <v>3230.9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.61875</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="D146" s="4">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.690277777777778</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="D147" s="4">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.759722222222222</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D149">
+        <v>3247.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.790972222222222</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D150">
+        <v>3275.3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.925</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D151">
+        <v>3275.3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.953472222222222</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D152">
+        <v>3294.7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.339583333333333</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D153">
+        <v>3294.7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.379166666666667</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D154">
+        <v>3313.1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.774305555555556</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D156">
+        <v>3313.1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.81875</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D157">
+        <v>3343.1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.881944444444444</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D158">
+        <v>3343.1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.914583333333333</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D159">
+        <v>3364</v>
+      </c>
+      <c r="E159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D160">
+        <v>3364</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.372222222222222</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D161">
+        <v>3382.5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.860416666666667</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="D162">
+        <v>3382.5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.879861111111111</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D163">
+        <v>3402.3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D164">
+        <v>3402.3</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.381944444444444</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D165">
+        <v>3420.9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.886805555555556</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>3420.9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.904861111111111</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D168">
+        <v>3439.1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D169">
+        <v>3439.1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.370833333333333</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D170">
+        <v>3457.7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.859027777777778</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D171">
+        <v>3457.7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.877777777777778</v>
+      </c>
+      <c r="C172" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D172">
+        <v>3475.9</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.340972222222222</v>
+      </c>
+      <c r="C173" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D173">
+        <v>3475.9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.370833333333333</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D174">
+        <v>3494.5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D175">
+        <v>3494.5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D176">
+        <v>3512.6</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B177" s="2">
+        <v>0.202083333333333</v>
+      </c>
+      <c r="C177" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D177">
+        <v>3512.6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0.220138888888889</v>
+      </c>
+      <c r="C178" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D178" s="4">
+        <v>3524</v>
+      </c>
+      <c r="E178" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.379861111111111</v>
+      </c>
+      <c r="C179" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D179" s="4">
+        <v>3524</v>
+      </c>
+      <c r="E179" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.407638888888889</v>
+      </c>
+      <c r="C180" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="D180">
+        <v>3535.8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0.536805555555556</v>
+      </c>
+      <c r="C181" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="D181">
+        <v>3535.8</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0.581944444444444</v>
+      </c>
+      <c r="C182" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D182">
+        <v>3550.7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B183" s="2">
+        <v>0.760416666666667</v>
+      </c>
+      <c r="C183" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D183">
+        <v>3550.7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="C184" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D184">
+        <v>3562.1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.864583333333333</v>
+      </c>
+      <c r="C185" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D185">
+        <v>3562.1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.897916666666667</v>
+      </c>
+      <c r="C186" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D186">
+        <v>3583.3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.75625</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D187">
+        <v>3583.3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.786111111111111</v>
+      </c>
+      <c r="C188" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D188">
+        <v>3603.3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0.928472222222222</v>
+      </c>
+      <c r="C189" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D189">
+        <v>3603.3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.954166666666667</v>
+      </c>
+      <c r="C190" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D190">
+        <v>3622.7</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.339583333333333</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D2">
+        <v>3622.7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.374305555555556</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D3">
+        <v>3641.3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.595833333333333</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D4">
+        <v>3641.3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.607638888888889</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D5">
+        <v>3646.4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.616666666666667</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D6">
+        <v>3646.4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.628472222222222</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D7">
+        <v>3651.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.777083333333333</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D8">
+        <v>3651.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.80625</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="D9">
+        <v>3675.4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.899305555555556</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="D10">
+        <v>3675.4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.928472222222222</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>3696.6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.338194444444444</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <v>3696.6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.373611111111111</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D13">
+        <v>3715.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.770138888888889</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D15">
+        <v>3715.2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.792361111111111</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D16">
+        <v>3733.4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.335416666666667</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D17">
+        <v>3733.4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.361111111111111</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D18">
+        <v>3752</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.915277777777778</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D20">
+        <v>3752</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.930555555555556</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D21">
+        <v>3770.2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.336805555555556</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D22">
+        <v>3770.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.3625</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D23">
+        <v>3789</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.770138888888889</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D24">
+        <v>3789</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.815277777777778</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D25">
+        <v>3816</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.888194444444444</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D26">
+        <v>3816</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.915972222222222</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D27">
+        <v>3835.4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.332638888888889</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D28">
+        <v>3835.4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.369444444444444</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>3853.9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.765277777777778</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D31">
+        <v>3853.9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D32">
+        <v>3876.6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.747916666666667</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D33">
+        <v>3876.6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.770138888888889</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="D34">
+        <v>3897.7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.879166666666667</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="D35">
+        <v>3897.7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.908333333333333</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D36">
+        <v>3915.6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.518055555555556</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D38">
+        <v>3915.6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D39">
+        <v>3916.3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.536111111111111</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D40">
+        <v>3916.3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.579861111111111</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D41">
+        <v>3970.8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.747916666666667</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D42">
+        <v>3970.8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.786805555555556</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D43">
+        <v>4009.6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.936805555555556</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D44">
+        <v>4009.6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.964583333333333</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D45">
+        <v>4029.3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.341666666666667</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D46">
+        <v>4029.3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.375694444444444</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D47">
+        <v>4047.9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.779166666666667</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D48">
+        <v>4047.9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.813194444444444</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="D49">
+        <v>4074.5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.879166666666667</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="D50">
+        <v>4074.5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.920138888888889</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="D51">
+        <v>4094.7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.334027777777778</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="D52">
+        <v>4094.7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D53">
+        <v>4113.4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.859722222222222</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D54">
+        <v>4113.4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.879861111111111</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D55">
+        <v>4131.6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.335416666666667</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D56">
+        <v>4131.6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.365972222222222</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="D57">
+        <v>4150.3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.742361111111111</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="D58">
+        <v>4150.3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.847222222222222</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D59">
+        <v>4168.5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.336111111111111</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D60">
+        <v>4168.5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.363888888888889</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="D61">
+        <v>4187.2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D62">
+        <v>4187.2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.640972222222222</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D63">
+        <v>4215.3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D64">
+        <v>4215.3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.692361111111111</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D65">
+        <v>4235.4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.915277777777778</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D66">
+        <v>4235.4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="D67">
+        <v>4279.1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="D68">
+        <v>4279.1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.36875</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D69">
+        <v>4297.6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.813194444444444</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D70">
+        <v>4297.6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.839583333333333</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="D71">
+        <v>4315.8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.529861111111111</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="D72">
+        <v>4315.8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.571527777777778</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D73">
+        <v>4327</v>
+      </c>
+      <c r="E73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.658333333333333</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D74">
+        <v>4327</v>
+      </c>
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="D75">
+        <v>4344</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.51875</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D76">
+        <v>4344</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.5375</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D77">
+        <v>4353</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.593055555555556</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D78">
+        <v>4353</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.620833333333333</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D79">
+        <v>4363</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.763888888888889</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D80">
+        <v>4363</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.797916666666667</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D81">
+        <v>4385</v>
+      </c>
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.93125</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D82">
+        <v>4385</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="D83">
+        <v>4404.5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.342361111111111</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="D84">
+        <v>4404.5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.390972222222222</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D85">
+        <v>4423.1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.779861111111111</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D87">
+        <v>4423.1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.804861111111111</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D88">
+        <v>4449.1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.888194444444444</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D89">
+        <v>4449.1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.919444444444444</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D90">
+        <v>4469.4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.332638888888889</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D91">
+        <v>4469.4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4488</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.786111111111111</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D94" s="4">
+        <v>4488</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.820138888888889</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D95">
+        <v>4506.3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D96">
+        <v>4506.3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.377777777777778</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D97">
+        <v>4525</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.790277777777778</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D98">
+        <v>4525</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D99">
+        <v>4543.3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.336111111111111</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D100">
+        <v>4543.3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.356944444444444</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D101">
+        <v>4561.9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.774305555555556</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="D103">
+        <v>4561.9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.811805555555556</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D104">
+        <v>4588.9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.896527777777778</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D105">
+        <v>4588.9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.925694444444444</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D106">
+        <v>4608.2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.335416666666667</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D107">
+        <v>4608.2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D108">
+        <v>4626.9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.803472222222222</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D110">
+        <v>4626.9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.825</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="D111">
+        <v>4645.4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.567361111111111</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="D112">
+        <v>4645.4</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.575</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D113">
+        <v>4647.3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="9990" activeTab="3"/>
+    <workbookView windowWidth="19190" windowHeight="7740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2020-3" sheetId="1" r:id="rId1"/>
     <sheet name="2020-4" sheetId="2" r:id="rId2"/>
     <sheet name="2020-5" sheetId="3" r:id="rId3"/>
     <sheet name="2020-6" sheetId="4" r:id="rId4"/>
+    <sheet name="2020-7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="52">
   <si>
     <t>日期</t>
   </si>
@@ -182,8 +183,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
@@ -196,13 +197,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -210,14 +204,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,29 +244,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +287,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -307,35 +318,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,7 +349,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +439,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,55 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,67 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,31 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,8 +546,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,21 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,9 +599,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,26 +634,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,7 +1137,7 @@
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.55454545454545" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -2381,10 +2382,10 @@
       <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" width="19.787610619469" customWidth="1"/>
-    <col min="7" max="8" width="9.53097345132743"/>
+    <col min="5" max="5" width="19.7909090909091" customWidth="1"/>
+    <col min="7" max="8" width="9.52727272727273"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5267,14 +5268,14 @@
       <selection pane="bottomLeft" activeCell="A188" sqref="A188:A190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.30088495575221" customWidth="1"/>
-    <col min="2" max="2" width="9.53097345132743"/>
-    <col min="5" max="5" width="18.6548672566372" customWidth="1"/>
-    <col min="7" max="7" width="27.6814159292035" customWidth="1"/>
-    <col min="8" max="8" width="17.5309734513274" customWidth="1"/>
-    <col min="9" max="9" width="18.6548672566372" customWidth="1"/>
+    <col min="1" max="1" width="9.3" customWidth="1"/>
+    <col min="2" max="2" width="9.52727272727273"/>
+    <col min="5" max="5" width="18.6545454545455" customWidth="1"/>
+    <col min="7" max="7" width="27.6818181818182" customWidth="1"/>
+    <col min="8" max="8" width="17.5272727272727" customWidth="1"/>
+    <col min="9" max="9" width="18.6545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8420,13 +8421,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -10267,6 +10268,160 @@
         <v>23</v>
       </c>
     </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.704861111111111</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D114">
+        <v>4647.3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.711805555555556</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D115">
+        <v>4649.2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.3375</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="D2">
+        <v>5288</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>5306.7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.877083333333333</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="D4">
+        <v>5306.7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D5">
+        <v>5324.8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7740" activeTab="4"/>
+    <workbookView windowWidth="19190" windowHeight="7730" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2020-3" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="2020-5" sheetId="3" r:id="rId3"/>
     <sheet name="2020-6" sheetId="4" r:id="rId4"/>
     <sheet name="2020-7" sheetId="5" r:id="rId5"/>
+    <sheet name="2020-8" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="59">
   <si>
     <t>日期</t>
   </si>
@@ -175,16 +176,37 @@
   <si>
     <t>虹口少体馆</t>
   </si>
+  <si>
+    <t>中友大厦</t>
+  </si>
+  <si>
+    <t>科投大厦</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>仁丰地产高境店 殷高西路189号</t>
+  </si>
+  <si>
+    <t>象源丽都</t>
+  </si>
+  <si>
+    <t>百联中环</t>
+  </si>
+  <si>
+    <t>近铁城市广场停车场</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
@@ -203,47 +225,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,7 +257,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,21 +276,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,20 +296,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -349,7 +371,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +419,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,67 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,91 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,39 +567,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,10 +593,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -632,11 +624,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8423,7 +8445,7 @@
   <sheetPr/>
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A103" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -10311,13 +10333,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -10419,6 +10441,709 @@
         <v>5324.8</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.338194444444444</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D14">
+        <v>5777.7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.372916666666667</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D15">
+        <v>5796.4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.779166666666667</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D16">
+        <v>5796.4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.806944444444444</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D17">
+        <v>5822.4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.883333333333333</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D18">
+        <v>5822.4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.911805555555556</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
+        <v>5831.4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.911805555555556</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
+        <v>5831.4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.934027777777778</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D21">
+        <v>5849.9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.336111111111111</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D27">
+        <v>5923.8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.372222222222222</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D28">
+        <v>5942.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.786805555555556</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D29">
+        <v>5942.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.815972222222222</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D30">
+        <v>5963.3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.890972222222222</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D31">
+        <v>5963.3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.920138888888889</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D32">
+        <v>5982.6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.436805555555556</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D22">
+        <v>7329.8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.467361111111111</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D23">
+        <v>7340.9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.488194444444444</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D24">
+        <v>7340.9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.511111111111111</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D25">
+        <v>7348</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.461111111111111</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D26">
+        <v>7348</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.484027777777778</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D27">
+        <v>7371</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.484027777777778</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D28">
+        <v>7371</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.498611111111111</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D29">
+        <v>7372.7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.553472222222222</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D30">
+        <v>7372.7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.567361111111111</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D31">
+        <v>7375.6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.568055555555556</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D32">
+        <v>7375.6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.597916666666667</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="D33">
+        <v>7398.1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.3375</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="D34">
+        <v>7398.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D35">
+        <v>7416.8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.774305555555556</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="D36">
+        <v>7416.8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.794444444444444</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D37">
+        <v>7434.9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.336805555555556</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <v>7434.9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.377777777777778</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D39">
+        <v>7453.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.771527777777778</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D40">
+        <v>7453.5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.827083333333333</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D41">
+        <v>7493.5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D42">
+        <v>7493.5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.947222222222222</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D43">
+        <v>7496.2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.947222222222222</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D44">
+        <v>7496.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.969444444444444</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D45">
+        <v>7518.6</v>
+      </c>
+      <c r="E45" t="s">
         <v>14</v>
       </c>
     </row>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="59">
   <si>
     <t>日期</t>
   </si>
@@ -203,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -219,23 +219,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +255,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,7 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +300,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -311,21 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,8 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +356,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +371,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +407,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,37 +485,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,97 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,19 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,11 +567,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,39 +618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,24 +639,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,16 +682,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,10 +703,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,94 +721,94 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10691,10 +10691,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -11147,6 +11147,108 @@
         <v>14</v>
       </c>
     </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D46">
+        <v>7518.6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.378472222222222</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="D47">
+        <v>7537.1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="D48">
+        <v>7537.1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.828472222222222</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D49">
+        <v>7564.9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.927083333333333</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D50">
+        <v>7564.9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.9625</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D51">
+        <v>7584.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="59">
   <si>
     <t>日期</t>
   </si>
@@ -203,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
@@ -226,7 +226,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,7 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,7 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,38 +338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,22 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,25 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,13 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,13 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,37 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,13 +455,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,13 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,25 +527,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +568,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -593,16 +604,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,28 +639,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10691,10 +10691,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -11249,6 +11249,74 @@
         <v>14</v>
       </c>
     </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D52">
+        <v>7584.2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.36875</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D53">
+        <v>7602.9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.872222222222222</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D54">
+        <v>7602.9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.891666666666667</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="D55" s="4">
+        <v>7621</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="66">
   <si>
     <t>日期</t>
   </si>
@@ -186,6 +186,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>龙阳路地铁站</t>
+  </si>
+  <si>
     <t>仁丰地产高境店 殷高西路189号</t>
   </si>
   <si>
@@ -197,17 +200,35 @@
   <si>
     <t>近铁城市广场停车场</t>
   </si>
+  <si>
+    <t>连城商业广场</t>
+  </si>
+  <si>
+    <t>美特力洗车</t>
+  </si>
+  <si>
+    <t>美特利洗车</t>
+  </si>
+  <si>
+    <t>交大慧谷停车场</t>
+  </si>
+  <si>
+    <t>梅川路1182号</t>
+  </si>
+  <si>
+    <t>徐汇区嘉善路516号</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -225,13 +246,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -246,39 +261,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +291,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,9 +336,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +358,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,7 +392,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,37 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,25 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,19 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,13 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,25 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,26 +583,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,23 +604,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +657,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -670,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10691,10 +10712,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -10739,18 +10760,171 @@
         <v>54</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.338194444444444</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="D13">
+        <v>7277.4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D14">
+        <v>7295.9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.809722222222222</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D15">
+        <v>7295.9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.825</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D16">
+        <v>7310.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.825</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D17">
+        <v>7310.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.845833333333333</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D18">
+        <v>7329.7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.436805555555556</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D19">
+        <v>7329.8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.467361111111111</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D20">
+        <v>7340.9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.488194444444444</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D21">
+        <v>7340.9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>44058</v>
       </c>
       <c r="B22" s="2">
-        <v>0.436805555555556</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="C22" s="3">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="D22">
-        <v>7329.8</v>
+        <v>7348</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -10758,53 +10932,53 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="B23" s="2">
-        <v>0.467361111111111</v>
+        <v>0.461111111111111</v>
       </c>
       <c r="C23" s="3">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="D23">
-        <v>7340.9</v>
+        <v>7348</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="B24" s="2">
-        <v>0.488194444444444</v>
+        <v>0.484027777777778</v>
       </c>
       <c r="C24" s="3">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="D24">
-        <v>7340.9</v>
+        <v>7371</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="B25" s="2">
-        <v>0.511111111111111</v>
+        <v>0.484027777777778</v>
       </c>
       <c r="C25" s="3">
-        <v>0.81</v>
+        <v>0.74</v>
       </c>
       <c r="D25">
-        <v>7348</v>
+        <v>7371</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10812,16 +10986,16 @@
         <v>44059</v>
       </c>
       <c r="B26" s="2">
-        <v>0.461111111111111</v>
+        <v>0.498611111111111</v>
       </c>
       <c r="C26" s="3">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="D26">
-        <v>7348</v>
+        <v>7372.7</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10829,16 +11003,16 @@
         <v>44059</v>
       </c>
       <c r="B27" s="2">
-        <v>0.484027777777778</v>
+        <v>0.553472222222222</v>
       </c>
       <c r="C27" s="3">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="D27">
-        <v>7371</v>
+        <v>7372.7</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10846,16 +11020,16 @@
         <v>44059</v>
       </c>
       <c r="B28" s="2">
-        <v>0.484027777777778</v>
+        <v>0.567361111111111</v>
       </c>
       <c r="C28" s="3">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="D28">
-        <v>7371</v>
+        <v>7375.6</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10863,13 +11037,13 @@
         <v>44059</v>
       </c>
       <c r="B29" s="2">
-        <v>0.498611111111111</v>
+        <v>0.568055555555556</v>
       </c>
       <c r="C29" s="3">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="D29">
-        <v>7372.7</v>
+        <v>7375.6</v>
       </c>
       <c r="E29" t="s">
         <v>57</v>
@@ -10880,67 +11054,67 @@
         <v>44059</v>
       </c>
       <c r="B30" s="2">
-        <v>0.553472222222222</v>
+        <v>0.597916666666667</v>
       </c>
       <c r="C30" s="3">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="D30">
-        <v>7372.7</v>
+        <v>7398.1</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>44059</v>
+        <v>44060</v>
       </c>
       <c r="B31" s="2">
-        <v>0.567361111111111</v>
+        <v>0.3375</v>
       </c>
       <c r="C31" s="3">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="D31">
-        <v>7375.6</v>
+        <v>7398.1</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>44059</v>
+        <v>44060</v>
       </c>
       <c r="B32" s="2">
-        <v>0.568055555555556</v>
+        <v>0.371527777777778</v>
       </c>
       <c r="C32" s="3">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="D32">
-        <v>7375.6</v>
+        <v>7416.8</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>44059</v>
+        <v>44060</v>
       </c>
       <c r="B33" s="2">
-        <v>0.597916666666667</v>
+        <v>0.774305555555556</v>
       </c>
       <c r="C33" s="3">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="D33">
-        <v>7398.1</v>
+        <v>7416.8</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -10948,13 +11122,13 @@
         <v>44060</v>
       </c>
       <c r="B34" s="2">
-        <v>0.3375</v>
+        <v>0.794444444444444</v>
       </c>
       <c r="C34" s="3">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="D34">
-        <v>7398.1</v>
+        <v>7434.9</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -10962,33 +11136,33 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B35" s="2">
-        <v>0.371527777777778</v>
+        <v>0.336805555555556</v>
       </c>
       <c r="C35" s="3">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="D35">
-        <v>7416.8</v>
+        <v>7434.9</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B36" s="2">
-        <v>0.774305555555556</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="C36" s="3">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="D36">
-        <v>7416.8</v>
+        <v>7453.5</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -10996,19 +11170,19 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B37" s="2">
-        <v>0.794444444444444</v>
+        <v>0.771527777777778</v>
       </c>
       <c r="C37" s="3">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="D37">
-        <v>7434.9</v>
+        <v>7453.5</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -11016,16 +11190,16 @@
         <v>44061</v>
       </c>
       <c r="B38" s="2">
-        <v>0.336805555555556</v>
+        <v>0.827083333333333</v>
       </c>
       <c r="C38" s="3">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="D38">
-        <v>7434.9</v>
+        <v>7493.5</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -11033,16 +11207,16 @@
         <v>44061</v>
       </c>
       <c r="B39" s="2">
-        <v>0.377777777777778</v>
+        <v>0.9375</v>
       </c>
       <c r="C39" s="3">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="D39">
-        <v>7453.5</v>
+        <v>7493.5</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11050,16 +11224,16 @@
         <v>44061</v>
       </c>
       <c r="B40" s="2">
-        <v>0.771527777777778</v>
+        <v>0.947222222222222</v>
       </c>
       <c r="C40" s="3">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="D40">
-        <v>7453.5</v>
+        <v>7496.2</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -11067,16 +11241,16 @@
         <v>44061</v>
       </c>
       <c r="B41" s="2">
-        <v>0.827083333333333</v>
+        <v>0.947222222222222</v>
       </c>
       <c r="C41" s="3">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="D41">
-        <v>7493.5</v>
+        <v>7496.2</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11084,67 +11258,67 @@
         <v>44061</v>
       </c>
       <c r="B42" s="2">
-        <v>0.9375</v>
+        <v>0.969444444444444</v>
       </c>
       <c r="C42" s="3">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="D42">
-        <v>7493.5</v>
+        <v>7518.6</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B43" s="2">
-        <v>0.947222222222222</v>
+        <v>0.338888888888889</v>
       </c>
       <c r="C43" s="3">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="D43">
-        <v>7496.2</v>
+        <v>7518.6</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B44" s="2">
-        <v>0.947222222222222</v>
+        <v>0.378472222222222</v>
       </c>
       <c r="C44" s="3">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="D44">
-        <v>7496.2</v>
+        <v>7537.1</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B45" s="2">
-        <v>0.969444444444444</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C45" s="3">
-        <v>0.24</v>
+        <v>0.67</v>
       </c>
       <c r="D45">
-        <v>7518.6</v>
+        <v>7537.1</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -11152,16 +11326,16 @@
         <v>44062</v>
       </c>
       <c r="B46" s="2">
-        <v>0.338888888888889</v>
+        <v>0.828472222222222</v>
       </c>
       <c r="C46" s="3">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="D46">
-        <v>7518.6</v>
+        <v>7564.9</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11169,16 +11343,16 @@
         <v>44062</v>
       </c>
       <c r="B47" s="2">
-        <v>0.378472222222222</v>
+        <v>0.927083333333333</v>
       </c>
       <c r="C47" s="3">
-        <v>0.19</v>
+        <v>0.6</v>
       </c>
       <c r="D47">
-        <v>7537.1</v>
+        <v>7564.9</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -11186,67 +11360,67 @@
         <v>44062</v>
       </c>
       <c r="B48" s="2">
-        <v>0.791666666666667</v>
+        <v>0.9625</v>
       </c>
       <c r="C48" s="3">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="D48">
-        <v>7537.1</v>
+        <v>7584.2</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B49" s="2">
-        <v>0.828472222222222</v>
+        <v>0.338888888888889</v>
       </c>
       <c r="C49" s="3">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="D49">
-        <v>7564.9</v>
+        <v>7584.2</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B50" s="2">
-        <v>0.927083333333333</v>
+        <v>0.36875</v>
       </c>
       <c r="C50" s="3">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="D50">
-        <v>7564.9</v>
+        <v>7602.9</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B51" s="2">
-        <v>0.9625</v>
+        <v>0.872222222222222</v>
       </c>
       <c r="C51" s="3">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="D51">
-        <v>7584.2</v>
+        <v>7602.9</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -11254,13 +11428,13 @@
         <v>44063</v>
       </c>
       <c r="B52" s="2">
-        <v>0.338888888888889</v>
+        <v>0.891666666666667</v>
       </c>
       <c r="C52" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="D52">
-        <v>7584.2</v>
+        <v>0.42</v>
+      </c>
+      <c r="D52" s="4">
+        <v>7621</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -11268,33 +11442,33 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B53" s="2">
-        <v>0.36875</v>
+        <v>0.340277777777778</v>
       </c>
       <c r="C53" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="D53">
-        <v>7602.9</v>
+        <v>0.4</v>
+      </c>
+      <c r="D53" s="4">
+        <v>7621</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B54" s="2">
-        <v>0.872222222222222</v>
+        <v>0.369444444444444</v>
       </c>
       <c r="C54" s="3">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="D54">
-        <v>7602.9</v>
+        <v>7639.6</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -11302,18 +11476,647 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B55" s="2">
-        <v>0.891666666666667</v>
+        <v>0.797222222222222</v>
       </c>
       <c r="C55" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="D55" s="4">
-        <v>7621</v>
+        <v>0.83</v>
+      </c>
+      <c r="D55">
+        <v>7639.6</v>
       </c>
       <c r="E55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.852777777777778</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D56">
+        <v>7685.4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.877083333333333</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D57">
+        <v>7685.4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.927777777777778</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D58">
+        <v>7747.2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D59">
+        <v>7747.2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.711805555555556</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D60">
+        <v>7747.9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.744444444444444</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D61">
+        <v>7747.9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.775</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D62">
+        <v>7751.3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.350694444444444</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D63">
+        <v>7751.3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.386805555555556</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D64">
+        <v>7777.5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.715972222222222</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D65">
+        <v>7777.6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D66">
+        <v>7802.4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.343055555555556</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D67">
+        <v>7802.4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.377083333333333</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D68" s="4">
+        <v>7821</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.920138888888889</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D69" s="4">
+        <v>7821</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.935416666666667</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="D70">
+        <v>7839.3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.345138888888889</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D71">
+        <v>7839.3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.377777777777778</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D72" s="4">
+        <v>7858</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.756944444444444</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D73" s="4">
+        <v>7858</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.797916666666667</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D74">
+        <v>7894.1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.868055555555556</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D75">
+        <v>7894.1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.902083333333333</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D76">
+        <v>7896.3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.902083333333333</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D77">
+        <v>7896.3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.924305555555556</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="D78">
+        <v>7919.3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="D79">
+        <v>7919.3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.36875</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D80" s="4">
+        <v>7938</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.794444444444444</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="D81" s="4">
+        <v>7938</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.83125</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>7965.8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.946527777777778</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D83">
+        <v>7965.8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.974305555555556</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D84">
+        <v>7985.4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.340972222222222</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D85">
+        <v>7985.4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.36875</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="D86">
+        <v>8004.3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.81875</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D87">
+        <v>8004.3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.838888888888889</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D88">
+        <v>8022.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.344444444444444</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D89">
+        <v>8022.5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.375694444444444</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="D90">
+        <v>8041.1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.790972222222222</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D91">
+        <v>8041.1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.824305555555556</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D92">
+        <v>8059.3</v>
+      </c>
+      <c r="E92" t="s">
         <v>14</v>
       </c>
     </row>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7730" activeTab="5"/>
+    <workbookView windowWidth="20520" windowHeight="9990" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2020-3" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="2020-6" sheetId="4" r:id="rId4"/>
     <sheet name="2020-7" sheetId="5" r:id="rId5"/>
     <sheet name="2020-8" sheetId="6" r:id="rId6"/>
+    <sheet name="2020-9" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="70">
   <si>
     <t>日期</t>
   </si>
@@ -218,16 +219,28 @@
   <si>
     <t>徐汇区嘉善路516号</t>
   </si>
+  <si>
+    <t>徐汇青少年水上学校</t>
+  </si>
+  <si>
+    <t>长泰广场停车场</t>
+  </si>
+  <si>
+    <t>闵行区莘城公寓</t>
+  </si>
+  <si>
+    <t>长泰停车场</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -240,6 +253,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,28 +268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,15 +297,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +323,45 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,23 +382,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,22 +391,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,13 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,49 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,25 +447,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,13 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +525,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -536,19 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,19 +567,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +596,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,24 +649,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,32 +696,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,7 +1193,7 @@
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55454545454545" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -2425,10 +2438,10 @@
       <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="19.7909090909091" customWidth="1"/>
-    <col min="7" max="8" width="9.52727272727273"/>
+    <col min="5" max="5" width="19.787610619469" customWidth="1"/>
+    <col min="7" max="8" width="9.53097345132743"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5311,14 +5324,14 @@
       <selection pane="bottomLeft" activeCell="A188" sqref="A188:A190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.3" customWidth="1"/>
-    <col min="2" max="2" width="9.52727272727273"/>
-    <col min="5" max="5" width="18.6545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6818181818182" customWidth="1"/>
-    <col min="8" max="8" width="17.5272727272727" customWidth="1"/>
-    <col min="9" max="9" width="18.6545454545455" customWidth="1"/>
+    <col min="1" max="1" width="9.30088495575221" customWidth="1"/>
+    <col min="2" max="2" width="9.53097345132743"/>
+    <col min="5" max="5" width="18.6548672566372" customWidth="1"/>
+    <col min="7" max="7" width="27.6814159292035" customWidth="1"/>
+    <col min="8" max="8" width="17.5309734513274" customWidth="1"/>
+    <col min="9" max="9" width="18.6548672566372" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8470,7 +8483,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -10360,7 +10373,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.72566371681416" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -10712,13 +10725,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.72566371681416" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -12117,6 +12130,673 @@
         <v>8059.3</v>
       </c>
       <c r="E92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.348611111111111</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="D93">
+        <v>8059.4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.379166666666667</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D94">
+        <v>8085.6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.722916666666667</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D95">
+        <v>8085.6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.742361111111111</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D96">
+        <v>8089.8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D97">
+        <v>8089.8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.8875</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D98">
+        <v>8111.3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D99">
+        <v>8111.3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.386111111111111</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D100" s="4">
+        <v>8130</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.801388888888889</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D101" s="4">
+        <v>8130</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D102">
+        <v>8162.9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.970138888888889</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D103">
+        <v>8162.9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.992361111111111</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="D104">
+        <v>8184.9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.7964601769912"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.336805555555556</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="D2">
+        <v>8184.9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.370138888888889</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="D3">
+        <v>8203.4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.717361111111111</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D4">
+        <v>8203.4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.840277777777778</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <v>8238.7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.846527777777778</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8239</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.872916666666667</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8271</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.918055555555556</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8271</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.932638888888889</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D9">
+        <v>8289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D10">
+        <v>8289</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.382638888888889</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D11">
+        <v>8307</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.727777777777778</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D12">
+        <v>8307</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.738888888888889</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D13">
+        <v>8311</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.813888888888889</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D14">
+        <v>8311</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.845138888888889</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="D15">
+        <v>8332</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.948611111111111</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="D16">
+        <v>8332</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D17">
+        <v>8351</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.335416666666667</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D18">
+        <v>8351</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.376388888888889</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>8370</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.945833333333333</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="D20">
+        <v>8370</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.884722222222222</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D21">
+        <v>8388</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.334027777777778</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D22">
+        <v>8388</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D23">
+        <v>8407</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.790277777777778</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="D24">
+        <v>8407</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.815972222222222</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="D25">
+        <v>8425</v>
+      </c>
+      <c r="E25" t="s">
         <v>14</v>
       </c>
     </row>

--- a/datastruct/src/main/resources/byd汽车使用情况.xlsx
+++ b/datastruct/src/main/resources/byd汽车使用情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="9570" activeTab="5"/>
+    <workbookView windowWidth="20520" windowHeight="9960" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2020-3" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="2020-7" sheetId="5" r:id="rId5"/>
     <sheet name="2020-8" sheetId="6" r:id="rId6"/>
     <sheet name="2020-9" sheetId="7" r:id="rId7"/>
+    <sheet name="2020-10" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="101">
   <si>
     <t>日期</t>
   </si>
@@ -309,16 +310,31 @@
   <si>
     <t>弘仁比亚迪4S店军工路</t>
   </si>
+  <si>
+    <t>南通市海门区长江南路（行政学校）</t>
+  </si>
+  <si>
+    <t>南通市海门区长江南路（海门区政府）</t>
+  </si>
+  <si>
+    <t>巨鹿路758-1号</t>
+  </si>
+  <si>
+    <t>美罗城停车场</t>
+  </si>
+  <si>
+    <t>国顺东路800号</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
@@ -337,6 +353,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -344,31 +368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,15 +408,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,7 +452,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,29 +489,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -483,13 +499,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,85 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,31 +649,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +699,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,30 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -745,17 +781,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,15 +799,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -791,10 +807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,133 +819,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13866,7 +13882,7 @@
   <sheetPr/>
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
@@ -16670,10 +16686,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -18552,6 +18568,1214 @@
         <v>95</v>
       </c>
     </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.836805555555556</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D110">
+        <v>9220</v>
+      </c>
+      <c r="E110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.931944444444444</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D111">
+        <v>9221</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.338888888888889</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D112">
+        <v>9222</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.365972222222222</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D113">
+        <v>9240</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.884027777777778</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D114">
+        <v>9240</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.902083333333333</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D115">
+        <v>9258</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D116">
+        <v>9258</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.373611111111111</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D117">
+        <v>9277</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.789583333333333</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D118">
+        <v>9277</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.824305555555556</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D119">
+        <v>9314</v>
+      </c>
+      <c r="E119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.911805555555556</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D120">
+        <v>9314</v>
+      </c>
+      <c r="E120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.956944444444444</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="D121">
+        <v>9332</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.339583333333333</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="D122">
+        <v>9332</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.365972222222222</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D123">
+        <v>9350.6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.858333333333333</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>9350.6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.876388888888889</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="D125">
+        <v>9368.9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.347916666666667</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="D126">
+        <v>9368.9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.365972222222222</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D127">
+        <v>9388.8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.451388888888889</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D128">
+        <v>9388.8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.476388888888889</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="D129">
+        <v>9403.1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.513194444444444</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="D130">
+        <v>9403.5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.644444444444444</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D131">
+        <v>9559.7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.676388888888889</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D132">
+        <v>9559.7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D133">
+        <v>9561.1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.846527777777778</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>9561.1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.945138888888889</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D135">
+        <v>9708.8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.334722222222222</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D136">
+        <v>9708.8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.377083333333333</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D137" s="4">
+        <v>9728</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D138" s="4">
+        <v>9728</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.881944444444444</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D139">
+        <v>9746.2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D140">
+        <v>9746.2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.372916666666667</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D141">
+        <v>9764.9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.797916666666667</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D142">
+        <v>9764.9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.822222222222222</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D143">
+        <v>9790.9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.881944444444444</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D144">
+        <v>9790.9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.934027777777778</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D145">
+        <v>9818.1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.336805555555556</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D146">
+        <v>9818.1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.370833333333333</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="D147">
+        <v>9836.8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0.894444444444444</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>9836.8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.911805555555556</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="D149">
+        <v>9855.2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.394444444444444</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D150">
+        <v>9855.6</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.433333333333333</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D151">
+        <v>9893.4</v>
+      </c>
+      <c r="E151" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.443055555555556</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D152">
+        <v>9893.4</v>
+      </c>
+      <c r="E152" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.882638888888889</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D153" s="4">
+        <v>9915</v>
+      </c>
+      <c r="E153" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.559027777777778</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D154">
+        <v>9915.1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0.588888888888889</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D155">
+        <v>9922.4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.620138888888889</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D156">
+        <v>9922.4</v>
+      </c>
+      <c r="E156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.648611111111111</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D157">
+        <v>9935.7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.648611111111111</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D158">
+        <v>9935.7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.70625</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D159">
+        <v>9987.7</v>
+      </c>
+      <c r="E159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.355555555555556</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
+        <v>9987.7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.373611111111111</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D3">
+        <v>6.4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.7625</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D4">
+        <v>6.4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.779166666666667</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>24.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.361805555555556</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>24.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.377083333333333</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D7">
+        <v>42.8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.489583333333333</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D8">
+        <v>42.8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D9">
+        <v>46.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.554861111111111</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D10">
+        <v>46.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.565972222222222</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D11">
+        <v>50.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.7625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D12">
+        <v>50.1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.780555555555556</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D13">
+        <v>68.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.636805555555556</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D14">
+        <v>68.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.647916666666667</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D15">
+        <v>72.9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.781944444444444</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D16">
+        <v>72.9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D17">
+        <v>75.8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.879166666666667</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D18">
+        <v>75.8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.890277777777778</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="D19">
+        <v>78.8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
